--- a/output/funa/date07032024/output.xlsx
+++ b/output/funa/date07032024/output.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/r_m_schouten_tue_nl/Documents/Documents/Github/FUNA_EMM/output/funa/date07032024/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E72EE1686840FA388FDDCD5EE1D2F9348AAE7AC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{589B8942-B3B4-44E5-912B-EE3F7B9E4AC9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-48120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation_summary" sheetId="1" r:id="rId1"/>
     <sheet name="analysis_info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>data_key</t>
   </si>
@@ -209,61 +215,37 @@
     <t>{'n_consd': 184, 'n_sim_descs': 23, 'n_small_groups': 23, 'n_redun_decs': None}</t>
   </si>
   <si>
-    <t>{'n_consd': 3674, 'n_sim_descs': 498, 'n_small_groups': 590, 'n_redun_decs': None}</t>
-  </si>
-  <si>
     <t>{'n_consd': 3674, 'n_sim_descs': 509, 'n_small_groups': 609, 'n_redun_decs': None}</t>
   </si>
   <si>
     <t>{'n_consd': 3674, 'n_sim_descs': 511, 'n_small_groups': 699, 'n_redun_decs': None}</t>
   </si>
   <si>
-    <t>{'n_consd': 3676, 'n_sim_descs': 548, 'n_small_groups': 825, 'n_redun_decs': None, 'n_redun_descs': None}</t>
-  </si>
-  <si>
-    <t>{'n_consd': 3678, 'n_sim_descs': 544, 'n_small_groups': 799, 'n_redun_decs': None, 'n_redun_descs': None}</t>
-  </si>
-  <si>
-    <t>{'n_consd': 3680, 'n_sim_descs': 546, 'n_small_groups': 849, 'n_redun_decs': None, 'n_redun_descs': None}</t>
-  </si>
-  <si>
-    <t>{'n_consd': 3676, 'n_sim_descs': 548, 'n_small_groups': 825, 'n_redun_decs': None}</t>
-  </si>
-  <si>
     <t>{'n_consd': 3678, 'n_sim_descs': 544, 'n_small_groups': 799, 'n_redun_decs': None}</t>
   </si>
   <si>
     <t>{'n_consd': 3680, 'n_sim_descs': 546, 'n_small_groups': 849, 'n_redun_decs': None}</t>
   </si>
   <si>
+    <t>{'n_consd': 3662, 'n_sim_descs': 552, 'n_small_groups': 864, 'n_redun_decs': None}</t>
+  </si>
+  <si>
+    <t>{'n_consd': 3635, 'n_sim_descs': 552, 'n_small_groups': 863, 'n_redun_decs': None}</t>
+  </si>
+  <si>
+    <t>{'n_consd': 3596, 'n_sim_descs': 496, 'n_small_groups': 895, 'n_redun_decs': None, 'n_redun_descs': None}</t>
+  </si>
+  <si>
+    <t>{'n_consd': 3578, 'n_sim_descs': 498, 'n_small_groups': 851, 'n_redun_decs': None, 'n_redun_descs': None}</t>
+  </si>
+  <si>
     <t>['f3fa-beje81', 'f3fa-bela30', 'f3fa-boco628', 'f3fa-bofa59', 'f3fa-bofo60', 'f3fa-bufe37', 'f3fa-bumi29', 'f3fa-bypa422', 'f3fa-cati12', 'f3fa-cepy00', 'f3fa-cibu013', 'f3fa-cixe568', 'f3fa-codi62', 'f3fa-cuby284', 'f3fa-cuca63', 'f3fa-cylo84', 'f3fa-dase74', 'f3fa-domu639', 'f3fa-duja11', 'f3fa-faxa66', 'f3fa-fazy56', 'f3fa-filu44', 'f3fa-fofa94', 'f3fa-fyna31', 'f3fa-fysu59', 'f3fa-gahe96', 'f3fa-game99', 'f3fa-gebi802', 'f3fa-gebi85', 'f3fa-gohu47', 'f3fa-guzi10', 'f3fa-haqy41', 'f3fa-heze61', 'f3fa-hofu54', 'f3fa-jabo771', 'f3fa-jazi164', 'f3fa-jejy23', 'f3fa-jicy166', 'f3fa-kivu48', 'f3fa-koxa72', 'f3fa-koxo676', 'f3fa-leje62', 'f3fa-leli93', 'f3fa-lile83', 'f3fa-liro01', 'f3fa-mivy43', 'f3fa-mizu223', 'f3fa-mogy35', 'f3fa-nare48', 'f3fa-nehe80', 'f3fa-pake58', 'f3fa-peti805', 'f3fa-peve12', 'f3fa-poxu53', 'f3fa-puqo388', 'f3fa-puxa45', 'f3fa-puzy338', 'f3fa-pypo881', 'f3fa-qani30', 'f3fa-qefe70', 'f3fa-qeka895', 'f3fa-qifu54', 'f3fa-qiqa006', 'f3fa-qocu28', 'f3fa-qocy54', 'f3fa-qogo78', 'f3fa-qozu95', 'f3fa-qype02', 'f3fa-qyza98', 'f3fa-rici51', 'f3fa-ruro12', 'f3fa-ryse348', 'f3fa-saro40', 'f3fa-sori06', 'f3fa-sufy50', 'f3fa-sugy705', 'f3fa-syza76', 'f3fa-tamy47', 'f3fa-tepi26', 'f3fa-texa07', 'f3fa-toky695', 'f3fa-tuje909', 'f3fa-tymi216', 'f3fa-vike12', 'f3fa-vomy09', 'f3fa-vyji492', 'f3fa-xana61', 'f3fa-xixe553', 'f3fa-xymo85', 'f3fa-zesy46', 'f3fa-ziqi14', 'f3fa-zupy054', 'f3fa-zutu163', 'f3fa-zygi94', 'f3sa-civu733', 'f3sa-gara47', 'f3sa-huji690', 'f3sa-soqu91', 'f3sa-zaqu660', 'f4fa-bape292', 'f4fa-bixi31', 'f4fa-bizi02', 'f4fa-ceky122', 'f4fa-cogi288', 'f4fa-curu38', 'f4fa-dece035', 'f4fa-dedu86', 'f4fa-dogu65', 'f4fa-dora30', 'f4fa-doty91', 'f4fa-dyve80', 'f4fa-faro032', 'f4fa-fegy40', 'f4fa-fuge957', 'f4fa-gala36', 'f4fa-gane291', 'f4fa-giny49', 'f4fa-gyha41', 'f4fa-gyky33', 'f4fa-gyne89', 'f4fa-heny94', 'f4fa-hiru65', 'f4fa-honu49', 'f4fa-huro647', 'f4fa-jaqe81', 'f4fa-jizi91', 'f4fa-joti36', 'f4fa-jura48', 'f4fa-kaje63', 'f4fa-kiby01', 'f4fa-kigu67', 'f4fa-kyxo650', 'f4fa-leza08', 'f4fa-liqa058', 'f4fa-lodi68', 'f4fa-lote072', 'f4fa-lufa996', 'f4fa-male284', 'f4fa-maxi85', 'f4fa-mazy708', 'f4fa-mexy927', 'f4fa-milu925', 'f4fa-mivi80', 'f4fa-naku565', 'f4fa-nata50', 'f4fa-negu495', 'f4fa-noky93', 'f4fa-poto952', 'f4fa-pusy26', 'f4fa-pysa83', 'f4fa-qebe23', 'f4fa-qitu92', 'f4fa-regy270', 'f4fa-roxe97', 'f4fa-rypa88', 'f4fa-seva091', 'f4fa-situ173', 'f4fa-tamy34', 'f4fa-taso151', 'f4fa-teci55', 'f4fa-tenu62', 'f4fa-tivu599', 'f4fa-tola16', 'f4fa-tomy85', 'f4fa-tuqu33', 'f4fa-tyda18', 'f4fa-vami06', 'f4fa-veto758', 'f4fa-vina08', 'f4fa-vitu41', 'f4fa-volu784', 'f4fa-vomi990', 'f4fa-vupu74', 'f4fa-xaro66', 'f4fa-xema68', 'f4fa-xete11', 'f4fa-xini62', 'f4fa-xity12', 'f4fa-zale352', 'f4fa-zima12', 'f4fa-zuzy83', 'f4fa-zyry70', 'f4sa-dyxe80', 'f4sa-gyto271', 'f4sa-pydi402', 'f4sa-suvo91', 'f5fa-bufo607', 'f5fa-byxi62', 'f5fa-cipe501', 'f5fa-dape87', 'f5fa-debe512', 'f5fa-dyli895', 'f5fa-febe838', 'f5fa-fery750', 'f5fa-fora07', 'f5fa-fozo570', 'f5fa-gahu307', 'f5fa-gima08', 'f5fa-gupi91', 'f5fa-hupe166', 'f5fa-jimu874', 'f5fa-juvi733', 'f5fa-kofy89', 'f5fa-mado810', 'f5fa-meja06', 'f5fa-meqo18', 'f5fa-mybu887', 'f5fa-nesu98', 'f5fa-nyba852', 'f5fa-pemu094', 'f5fa-peqa02', 'f5fa-peqa65', 'f5fa-puhi465', 'f5fa-qoge86', 'f5fa-qyza885', 'f5fa-roqi493', 'f5fa-saku629', 'f5fa-siqa51', 'f5fa-sise12', 'f5fa-suna74', 'f5fa-tyfu913', 'f5fa-vuze12', 'f5fa-vyri78', 'f5fa-xodo214', 'f5fa-zinu11', 'f5sa-duvu932', 'f5sa-vaky79', 'f5sa-xele12', 'f6fa-bive43', 'f6fa-bymu555', 'f6fa-cime132', 'f6fa-cufa76', 'f6fa-feko884', 'f6fa-fyse90', 'f6fa-gofa974', 'f6fa-gohu929', 'f6fa-gyxo011', 'f6fa-hoqe150', 'f6fa-hylo714', 'f6fa-hylu78', 'f6fa-josy87', 'f6fa-kuja322', 'f6fa-lexy74', 'f6fa-nulo192', 'f6fa-nusi066', 'f6fa-pepa86', 'f6fa-pufu495', 'f6fa-qefe04', 'f6fa-reta28', 'f6fa-ryle405', 'f6fa-vynu129', 'f6fa-xefy65', 'f6fa-xizo171', 'f6fa-zaxa586', 'f6fa-zupu049', 'f6sa-hame47', 'f6sa-huna450', 'f6sa-paby54', 'f6sa-xezu070', 'f7fa-bega49', 'f7fa-benu89', 'f7fa-bisa70', 'f7fa-bisu94', 'f7fa-cavu122', 'f7fa-cizu978', 'f7fa-cyzo025', 'f7fa-dymy152', 'f7fa-fapo01', 'f7fa-fyqu220', 'f7fa-fyxa95', 'f7fa-geja05', 'f7fa-guji753', 'f7fa-jady22', 'f7fa-jili62', 'f7fa-jipy15', 'f7fa-jofy791', 'f7fa-jojo85', 'f7fa-jugu941', 'f7fa-jusa27', 'f7fa-jyqy652', 'f7fa-jyxo667', 'f7fa-keci288', 'f7fa-kiko05', 'f7fa-kopu492', 'f7fa-laqo91', 'f7fa-lehu25', 'f7fa-mara09', 'f7fa-miny044', 'f7fa-muve62', 'f7fa-navo141', 'f7fa-nini54', 'f7fa-niqa154', 'f7fa-nogi42', 'f7fa-nolu59', 'f7fa-pefa21', 'f7fa-pise09', 'f7fa-pugi89', 'f7fa-pybu54', 'f7fa-qamo64', 'f7fa-quce92', 'f7fa-qufu81', 'f7fa-qymo856', 'f7fa-requ07', 'f7fa-rivu78', 'f7fa-roxa15', 'f7fa-rute406', 'f7fa-ryhy522', 'f7fa-rytu12', 'f7fa-sini29', 'f7fa-syny30', 'f7fa-tato21', 'f7fa-tiry297', 'f7fa-tivi09', 'f7fa-viji929', 'f7fa-vine35', 'f7fa-vuvy68', 'f7fa-vyfu39', 'f7fa-vyre209', 'f7fa-xico412', 'f7fa-xovi82', 'f7fa-xovo630', 'f7fa-xudy24', 'f7fa-zety636', 'f7fa-zoga49', 'f7fa-zoma09', 'f7fa-zove46', 'f7fa-zuny77', 'f7fa-zyta24', 'f7fa-zyzu82', 'f7sa-dygy217', 'f7sa-joqo62', 'f7sa-jynu85', 'f7sa-sopy978', 'f7sa-vaxe88', 'f7sa-xofe25', 'f8fa-buva956', 'f8fa-cevi716', 'f8fa-fude643', 'f8fa-gaxi001', 'f8fa-haro73', 'f8fa-jogu084', 'f8fa-jure916', 'f8fa-napy288', 'f8fa-quvo88', 'f8fa-siqe795', 'f8fa-tevi191', 'f8fa-xygy759', 'f8sa-cava484', 'f9fa-bugi915', 'f9fa-koqe675', 'f9fa-mexu444', 'm3fa-beho04', 'm3fa-beju772', 'm3fa-bemi94', 'm3fa-bybe345', 'm3fa-bygi046', 'm3fa-byku71', 'm3fa-caci94', 'm3fa-cefe66', 'm3fa-ceqo33', 'm3fa-cesy54', 'm3fa-cosy15', 'm3fa-daby15', 'm3fa-deki909', 'm3fa-delo61', 'm3fa-dija51', 'm3fa-diju483', 'm3fa-diso70', 'm3fa-dote70', 'm3fa-doxa336', 'm3fa-doxo696', 'm3fa-dyqi89', 'm3fa-fedy60', 'm3fa-fepe881', 'm3fa-funi255', 'm3fa-fuzo82', 'm3fa-gezo80', 'm3fa-giqo35', 'm3fa-gudi965', 'm3fa-gyca57', 'm3fa-gysu57', 'm3fa-hisu89', 'm3fa-humo60', 'm3fa-hybu41', 'm3fa-hyli40', 'm3fa-hymu069', 'm3fa-hypy22', 'm3fa-jexo951', 'm3fa-jiqi71', 'm3fa-jixu848', 'm3fa-jodo391', 'm3fa-jovy73', 'm3fa-kagi56', 'm3fa-kaky10', 'm3fa-kugy53', 'm3fa-lamy932', 'm3fa-levo81', 'm3fa-logy60', 'm3fa-loja82', 'm3fa-loty63', 'm3fa-lyno36', 'm3fa-lypo782', 'm3fa-maty14', 'm3fa-mebi38', 'm3fa-migi59', 'm3fa-milu92', 'm3fa-mixu07', 'm3fa-moci252', 'm3fa-moly18', 'm3fa-moxo328', 'm3fa-muha02', 'm3fa-muqo40', 'm3fa-muve35', 'm3fa-namy98', 'm3fa-noby82', 'm3fa-noci13', 'm3fa-nyda26', 'm3fa-nyhy50', 'm3fa-paxe793', 'm3fa-pega24', 'm3fa-pexo374', 'm3fa-pima701', 'm3fa-pise40', 'm3fa-pisu52', 'm3fa-puba96', 'm3fa-puzy14', 'm3fa-qizu819', 'm3fa-qoci23', 'm3fa-qohu75', 'm3fa-qolo92', 'm3fa-qudi96', 'm3fa-quma213', 'm3fa-qycy10', 'm3fa-qyhi011', 'm3fa-qyqu96', 'm3fa-rebi217', 'm3fa-rigi94', 'm3fa-rixe78', 'm3fa-ryce59', 'm3fa-ryny09', 'm3fa-sege976', 'm3fa-sona95', 'm3fa-suju95', 'm3fa-tuga837', 'm3fa-vava01', 'm3fa-viby92', 'm3fa-vita32', 'm3fa-vixu40', 'm3fa-vyba02', 'm3fa-xaky88', 'm3fa-xily48', 'm3fa-xiti628', 'm3fa-xuma93', 'm3fa-xyvu33', 'm3fa-zavo76', 'm3fa-zeca22', 'm3fa-zexy994', 'm3sa-hihy18', 'm3sa-jenu27', 'm3sa-kaho02', 'm3sa-pazo46', 'm3sa-roha94', 'm3sa-vybo048', 'm3sa-vydi40', 'm3sa-zado37', 'm4fa-bufe042', 'm4fa-bypo82', 'm4fa-cati47', 'm4fa-cejy98', 'm4fa-cute97', 'm4fa-dazi19', 'm4fa-debi39', 'm4fa-depy76', 'm4fa-dicu136', 'm4fa-dory24', 'm4fa-dujo32', 'm4fa-duxa93', 'm4fa-fofy11', 'm4fa-foku88', 'm4fa-furu919', 'm4fa-fymy135', 'm4fa-gaci553', 'm4fa-gafu88', 'm4fa-gavo29', 'm4fa-gaze85', 'm4fa-gigy95', 'm4fa-goci986', 'm4fa-goge154', 'm4fa-hadi620', 'm4fa-hesa95', 'm4fa-hiso355', 'm4fa-hoca15', 'm4fa-huge02', 'm4fa-huma145', 'm4fa-jiny13', 'm4fa-jiso236', 'm4fa-kafu74', 'm4fa-kasu98', 'm4fa-keki903', 'm4fa-koke977', 'm4fa-kosa69', 'm4fa-kuko25', 'm4fa-kyvu739', 'm4fa-lene946', 'm4fa-licu10', 'm4fa-lixa29', 'm4fa-loce68', 'm4fa-loga94', 'm4fa-loru27', 'm4fa-luja460', 'm4fa-lyfu408', 'm4fa-mabi48', 'm4fa-mexi18', 'm4fa-mexu63', 'm4fa-mixu600', 'm4fa-mofe61', 'm4fa-myci78', 'm4fa-myni152', 'm4fa-neto72', 'm4fa-nexo92', 'm4fa-numi538', 'm4fa-nusa956', 'm4fa-paly84', 'm4fa-paqe33', 'm4fa-paty246', 'm4fa-poku194', 'm4fa-pupe082', 'm4fa-puxe566', 'm4fa-pyro458', 'm4fa-qura365', 'm4fa-qyji40', 'm4fa-raqu94', 'm4fa-raxo978', 'm4fa-rigu45', 'm4fa-ropa892', 'm4fa-rova145', 'm4fa-ruhe51', 'm4fa-ryce373', 'm4fa-rygy03', 'm4fa-ryle65', 'm4fa-rytu35', 'm4fa-seby187', 'm4fa-senu96', 'm4fa-sigu309', 'm4fa-tali71', 'm4fa-tepi08', 'm4fa-tija481', 'm4fa-time107', 'm4fa-tofi94', 'm4fa-toly19', 'm4fa-tuxo87', 'm4fa-tyca23', 'm4fa-veky376', 'm4fa-vibe67', 'm4fa-viji47', 'm4fa-voku749', 'm4fa-voxy61', 'm4fa-vyjy682', 'm4fa-vyko237', 'm4fa-xapo532', 'm4fa-xoci96', 'm4fa-xoti66', 'm4fa-xutu00', 'm4fa-xyri919', 'm4fa-zebi13', 'm4sa-cusi039', 'm4sa-dazo971', 'm4sa-giki77', 'm4sa-mage00', 'm4sa-nygu03', 'm4sa-ruja79', 'm4sa-xeqe82', 'm5fa-bola19', 'm5fa-byve773', 'm5fa-capu41', 'm5fa-cino19', 'm5fa-civu52', 'm5fa-cogo708', 'm5fa-cusu234', 'm5fa-fexo16', 'm5fa-foha365', 'm5fa-fyso879', 'm5fa-gemo899', 'm5fa-jado95', 'm5fa-keze315', 'm5fa-kiga866', 'm5fa-kode84', 'm5fa-kyme75', 'm5fa-lize422', 'm5fa-logy440', 'm5fa-mati682', 'm5fa-moju29', 'm5fa-pije514', 'm5fa-puda20', 'm5fa-qyxa696', 'm5fa-rudi82', 'm5fa-sunu522', 'm5fa-tevi03', 'm5fa-tyjy432', 'm5fa-vaxe04', 'm5fa-vena90', 'm5fa-vuvy789', 'm5fa-xaba72', 'm5fa-xete51', 'm5fa-zaqy86', 'm5fa-zaqy93', 'm5fa-zefy00', 'm5fa-zofy33', 'm5fa-zose021', 'm5sa-kupo54', 'm6fa-bidi922', 'm6fa-bilo08', 'm6fa-boke29', 'm6fa-byxe88', 'm6fa-caji69', 'm6fa-coso606', 'm6fa-cumo228', 'm6fa-gazy75', 'm6fa-giho772', 'm6fa-heso30', 'm6fa-huro83', 'm6fa-jolu000', 'm6fa-joni96', 'm6fa-kate962', 'm6fa-kenu69', 'm6fa-lizu56', 'm6fa-pufe68', 'm6fa-qaju28', 'm6fa-qasu147', 'm6fa-qegy68', 'm6fa-qezy252', 'm6fa-qyxo001', 'm6fa-roby806', 'm6fa-rufa13', 'm6fa-sase101', 'm6fa-selu200', 'm6fa-sexa730', 'm6fa-some616', 'm6fa-suli70', 'm6fa-tade366', 'm6fa-toda76', 'm6fa-vixa645', 'm6fa-xaho985', 'm6fa-xiku460', 'm6fa-xoji30', 'm6fa-xoro196', 'm6fa-zysu797', 'm6sa-cobi402', 'm6sa-jeky775', 'm6sa-jyve086', 'm6sa-lepi814', 'm6sa-meca814', 'm6sa-nete488', 'm6sa-nuju178', 'm7fa-bafa74', 'm7fa-baje80', 'm7fa-becu690', 'm7fa-bena99', 'm7fa-beqe95', 'm7fa-bomo37', 'm7fa-buse50', 'm7fa-buvi24', 'm7fa-cedo05', 'm7fa-cige74', 'm7fa-cona993', 'm7fa-cuda435', 'm7fa-cyki783', 'm7fa-daje82', 'm7fa-depy244', 'm7fa-dizu43', 'm7fa-dozu78', 'm7fa-dylo47', 'm7fa-faxy00', 'm7fa-feso80', 'm7fa-firu97', 'm7fa-fova67', 'm7fa-hazu85', 'm7fa-hequ57', 'm7fa-hexu71', 'm7fa-jeta702', 'm7fa-jobu261', 'm7fa-jocy458', 'm7fa-judy57', 'm7fa-juja61', 'm7fa-kahe38', 'm7fa-kejy72', 'm7fa-kere77', 'm7fa-kiny665', 'm7fa-kopa917', 'm7fa-kyjo932', 'm7fa-kysi12', 'm7fa-lazi738', 'm7fa-lica268', 'm7fa-lone671', 'm7fa-lumy407', 'm7fa-maku255', 'm7fa-muju69', 'm7fa-najy42', 'm7fa-nava332', 'm7fa-nezo10', 'm7fa-nofy664', 'm7fa-nyma20', 'm7fa-pago113', 'm7fa-peca832', 'm7fa-peny93', 'm7fa-qacy56', 'm7fa-qago69', 'm7fa-qomu18', 'm7fa-qypa220', 'm7fa-rasa33', 'm7fa-rife75', 'm7fa-rody917', 'm7fa-roro187', 'm7fa-rufe17', 'm7fa-ruje25', 'm7fa-ryfy778', 'm7fa-safi202', 'm7fa-saga241', 'm7fa-sahe44', 'm7fa-sajy57', 'm7fa-sixa59', 'm7fa-soqy20', 'm7fa-syce055', 'm7fa-talo84', 'm7fa-tego57', 'm7fa-tiby58', 'm7fa-toca11', 'm7fa-tyxi31', 'm7fa-vaca49', 'm7fa-vubi78', 'm7fa-vuku28', 'm7fa-vupu10', 'm7fa-xera129', 'm7fa-xoju58', 'm7fa-xopu40', 'm7fa-xybe33', 'm7fa-xyha71', 'm7fa-xyqo45', 'm7fa-xyzy62', 'm7fa-zefi47', 'm7fa-ziza294', 'm7fa-zuka306', 'm7fa-zuke002', 'm7sa-byci05', 'm7sa-cybe20', 'm7sa-fina38', 'm7sa-hyjy89', 'm7sa-jine830', 'm7sa-kepi706', 'm7sa-misy92', 'm7sa-namo88', 'm7sa-pugu48', 'm7sa-qule17', 'm7sa-rili127', 'm8fa-cypy143', 'm8fa-favu205', 'm8fa-five85', 'm8fa-hori46', 'm8fa-kijy65', 'm8fa-kygy38', 'm8fa-pepy81', 'm8fa-radi726', 'm8fa-rana962', 'm8fa-ryvu81', 'm8fa-tepy856', 'm8fa-xaso120', 'm8fa-zuxu887', 'm9fa-beny298', 'm9fa-guja410', 'm9fa-kigo237', 'm9fa-mujy282', 'm9fa-nika305', 'm9fa-tuci744', 'm9fa-vimo841']</t>
   </si>
   <si>
-    <t>{'n_consd': 3644, 'n_sim_descs': 561, 'n_small_groups': 888, 'n_redun_decs': None}</t>
-  </si>
-  <si>
-    <t>{'n_consd': 3662, 'n_sim_descs': 552, 'n_small_groups': 864, 'n_redun_decs': None}</t>
-  </si>
-  <si>
-    <t>{'n_consd': 3635, 'n_sim_descs': 552, 'n_small_groups': 863, 'n_redun_decs': None}</t>
-  </si>
-  <si>
-    <t>{'n_consd': 3596, 'n_sim_descs': 507, 'n_small_groups': 908, 'n_redun_decs': None, 'n_redun_descs': None}</t>
-  </si>
-  <si>
-    <t>{'n_consd': 3596, 'n_sim_descs': 496, 'n_small_groups': 895, 'n_redun_decs': None, 'n_redun_descs': None}</t>
-  </si>
-  <si>
-    <t>{'n_consd': 3578, 'n_sim_descs': 498, 'n_small_groups': 851, 'n_redun_decs': None, 'n_redun_descs': None}</t>
-  </si>
-  <si>
-    <t>{'subrange_est': 3.38, 'subrange_se': 0.12, 'slopes': array([ 92.46, 545.75]), 'intercepts': array([1299.3, -234.5]), 'fitbreaks': array([1.  , 3.38, 9.  ]), 'betas': array([1391.75,   92.46,  453.29]), 'ssres': 27889552052.252205, 'sstot': 45011461291.333206, 'precision': 4.677737374755174e-07, 'nrparams': 3}</t>
-  </si>
-  <si>
-    <t>{'subrange_est': 3.38, 'subrange_se': 0.12, 'slopes': array([ 92.46, 545.75]), 'intercepts': array([1299.3 , -234.51]), 'fitbreaks': array([1.  , 3.38, 9.  ]), 'betas': array([1391.75,   92.46,  453.29]), 'ssres': 27889552052.251892, 'sstot': 45011461291.333206, 'precision': 4.677737374755226e-07, 'nrparams': 3}</t>
-  </si>
-  <si>
-    <t>{'subrange_est': 3.38, 'subrange_se': 0.12, 'slopes': array([ 92.46, 545.75]), 'intercepts': array([1299.3 , -234.51]), 'fitbreaks': array([1.  , 3.38, 9.  ]), 'betas': array([1391.75,   92.46,  453.29]), 'ssres': 27889552052.252502, 'sstot': 45011461291.333206, 'precision': 4.677737374755124e-07, 'nrparams': 3}</t>
+    <t>{'subrange_est': 3.38, 'subrange_se': 0.12, 'slopes': array([ 92.46, 545.75]), 'intercepts': array([1299.3 , -234.51]), 'fitbreaks': array([1.  , 3.38, 9.  ]), 'betas': array([1391.75,   92.46,  453.29]), 'ssres': 27889552052.25219, 'sstot': 45011461291.333206, 'precision': 4.677737374755176e-07, 'nrparams': 3}</t>
+  </si>
+  <si>
+    <t>{'subrange_est': 3.38, 'subrange_se': 0.12, 'slopes': array([ 92.46, 545.75]), 'intercepts': array([1299.3 , -234.51]), 'fitbreaks': array([1.  , 3.38, 9.  ]), 'betas': array([1391.75,   92.46,  453.29]), 'ssres': 27889552052.252064, 'sstot': 45011461291.333206, 'precision': 4.6777373747551976e-07, 'nrparams': 3}</t>
   </si>
   <si>
     <t>['sex', 'language']</t>
@@ -272,12 +254,6 @@
     <t>['NCAnsCsum', 'NCPreOrdmax', 'NCAnsCprop', 'NCtimeCmean', 'NCtimeCmedian', 'NCIES', 'NCRTslopeNumDis', 'NCRTinterceptNumDis', 'NCRTslopeNumRatio', 'NCRTinterceptNumRatio', 'SAAnsCsum', 'SAPreOrdmax', 'SAAnsCprop', 'SAtimeCmean', 'SAtimeCmedian', 'SAIES', 'SSAnsCsum', 'SSPreOrdmax', 'SSAnsCprop', 'SStimeCmean', 'SStimeCmedian', 'SSIES', 'CAAnsCsum', 'CAPreOrdmax', 'CAAnsCprop', 'CAtimeCmean', 'CAtimeCmedian', 'CAIES']</t>
   </si>
   <si>
-    <t>{'subrange_est': 3.38, 'subrange_se': 0.12, 'slopes': array([ 92.46, 545.75]), 'intercepts': array([1299.3, -234.5]), 'fitbreaks': array([1.  , 3.38, 9.  ]), 'betas': array([1391.75,   92.46,  453.29]), 'ssres': 27889552052.25234, 'sstot': 45011461291.333206, 'precision': 4.6777373747551515e-07, 'nrparams': 3}</t>
-  </si>
-  <si>
-    <t>{'subrange_est': 3.38, 'subrange_se': 0.12, 'slopes': array([ 92.46, 545.75]), 'intercepts': array([1299.3 , -234.51]), 'fitbreaks': array([1.  , 3.38, 9.  ]), 'betas': array([1391.75,   92.46,  453.29]), 'ssres': 27889552052.251934, 'sstot': 45011461291.333206, 'precision': 4.677737374755219e-07, 'nrparams': 3}</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -287,29 +263,17 @@
     <t>['IDCode']</t>
   </si>
   <si>
-    <t>[220.58, 178.21]</t>
-  </si>
-  <si>
-    <t>[150.98, 140.29]</t>
-  </si>
-  <si>
-    <t>[93.73, 113.62]</t>
-  </si>
-  <si>
-    <t>[173.01, 226.2]</t>
-  </si>
-  <si>
-    <t>[220.72, 287.21]</t>
-  </si>
-  <si>
-    <t>[258.91, 148.02]</t>
+    <t>[240.91, 251.52]</t>
+  </si>
+  <si>
+    <t>[238.7, 258.72]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,13 +336,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -416,7 +388,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -450,6 +422,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -484,9 +457,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,14 +633,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:BH7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -859,7 +835,7 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -874,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -886,139 +862,139 @@
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2">
         <v>10</v>
       </c>
       <c r="O2">
-        <v>557.8099999999999</v>
+        <v>1569.21</v>
       </c>
       <c r="P2">
-        <v>1198.1</v>
+        <v>1599.72</v>
       </c>
       <c r="Q2">
-        <v>1506.01</v>
+        <v>1758.48</v>
       </c>
       <c r="R2">
-        <v>6.61</v>
+        <v>110.08</v>
       </c>
       <c r="S2">
-        <v>89.37</v>
+        <v>231.72</v>
       </c>
       <c r="T2">
-        <v>352.93</v>
+        <v>493.26</v>
       </c>
       <c r="U2">
+        <v>0.25</v>
+      </c>
+      <c r="V2">
+        <v>0.38</v>
+      </c>
+      <c r="W2">
         <v>0.4</v>
       </c>
-      <c r="V2">
-        <v>0.48</v>
-      </c>
-      <c r="W2">
-        <v>0.5</v>
-      </c>
       <c r="X2">
+        <v>0.25</v>
+      </c>
+      <c r="Y2">
+        <v>0.38</v>
+      </c>
+      <c r="Z2">
         <v>0.4</v>
       </c>
-      <c r="Y2">
-        <v>0.48</v>
-      </c>
-      <c r="Z2">
-        <v>0.5</v>
-      </c>
       <c r="AA2">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="AB2">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AC2">
-        <v>3.55</v>
+        <v>3.66</v>
       </c>
       <c r="AD2">
         <v>0.15</v>
       </c>
       <c r="AE2">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="AF2">
-        <v>68.28</v>
+        <v>0.17</v>
       </c>
       <c r="AG2">
-        <v>4.22093023255814</v>
+        <v>3.373385012919897</v>
       </c>
       <c r="AH2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="AJ2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK2">
-        <v>0.2099073896114062</v>
+        <v>1.030898890304093</v>
       </c>
       <c r="AL2">
-        <v>3.136024682041536</v>
+        <v>3.3027405537097549</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.51506024096385539</v>
       </c>
       <c r="AN2">
-        <v>0.04953145917001339</v>
+        <v>0.60881542699724522</v>
       </c>
       <c r="AO2">
-        <v>0.6682808716707022</v>
+        <v>0.71924290220820186</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR2">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU2">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="AV2">
-        <v>0.4516129032258064</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="AW2">
-        <v>1.612903225806452</v>
+        <v>1.354838709677419</v>
       </c>
       <c r="AX2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY2">
-        <v>6.77029539346695</v>
+        <v>12.267854901154839</v>
       </c>
       <c r="AZ2">
         <v>2</v>
       </c>
       <c r="BA2">
-        <v>199.395</v>
+        <v>246.215</v>
       </c>
       <c r="BB2">
-        <v>21.185</v>
+        <v>5.3050000000000068</v>
       </c>
       <c r="BC2">
-        <v>234.244325</v>
+        <v>254.94172499999999</v>
       </c>
       <c r="BD2">
-        <v>240.9176</v>
+        <v>256.61279999999999</v>
       </c>
       <c r="BE2">
-        <v>254.0523</v>
+        <v>259.90190000000001</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -1030,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1041,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1056,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -1068,139 +1044,139 @@
         <v>0.05</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3">
-        <v>557.8200000000001</v>
+        <v>1864.85</v>
       </c>
       <c r="P3">
-        <v>1205.66</v>
+        <v>1907.08</v>
       </c>
       <c r="Q3">
-        <v>1614.35</v>
+        <v>1948.61</v>
       </c>
       <c r="R3">
-        <v>182.96</v>
+        <v>1003.58</v>
       </c>
       <c r="S3">
-        <v>388.45</v>
+        <v>1198.27</v>
       </c>
       <c r="T3">
-        <v>578.04</v>
+        <v>1461.39</v>
       </c>
       <c r="U3">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="V3">
-        <v>0.44</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="W3">
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="X3">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="Y3">
-        <v>0.44</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Z3">
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AA3">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="AB3">
-        <v>3.54</v>
+        <v>3.57</v>
       </c>
       <c r="AC3">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="AD3">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AE3">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AF3">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="AG3">
-        <v>3.979328165374677</v>
+        <v>2.9509043927648579</v>
       </c>
       <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>6</v>
+      </c>
+      <c r="AK3">
+        <v>1.178025314851769</v>
+      </c>
+      <c r="AL3">
+        <v>2.6641401799824038</v>
+      </c>
+      <c r="AM3">
+        <v>0.6</v>
+      </c>
+      <c r="AN3">
+        <v>0.71924290220820186</v>
+      </c>
+      <c r="AO3">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="AP3">
+        <v>2.25</v>
+      </c>
+      <c r="AQ3">
         <v>3</v>
       </c>
-      <c r="AI3">
-        <v>4</v>
-      </c>
-      <c r="AJ3">
-        <v>5</v>
-      </c>
-      <c r="AK3">
-        <v>0.2494798483170584</v>
-      </c>
-      <c r="AL3">
-        <v>3.44074029456857</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0.04953145917001339</v>
-      </c>
-      <c r="AO3">
-        <v>0.5950413223140496</v>
-      </c>
-      <c r="AP3">
+      <c r="AR3">
+        <v>3.75</v>
+      </c>
+      <c r="AS3">
+        <v>2</v>
+      </c>
+      <c r="AT3">
+        <v>3</v>
+      </c>
+      <c r="AU3">
+        <v>3.75</v>
+      </c>
+      <c r="AV3">
         <v>1</v>
       </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
-        <v>2</v>
-      </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>2</v>
-      </c>
-      <c r="AV3">
-        <v>0.5161290322580645</v>
-      </c>
       <c r="AW3">
-        <v>1.548387096774194</v>
+        <v>1.419354838709677</v>
       </c>
       <c r="AX3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY3">
-        <v>6.938136367003123</v>
+        <v>12.156924561659499</v>
       </c>
       <c r="AZ3">
         <v>2</v>
       </c>
       <c r="BA3">
-        <v>145.635</v>
+        <v>248.71</v>
       </c>
       <c r="BB3">
-        <v>5.344999999999999</v>
+        <v>10.010000000000019</v>
       </c>
       <c r="BC3">
-        <v>154.427525</v>
+        <v>265.17644999999999</v>
       </c>
       <c r="BD3">
-        <v>156.1112</v>
+        <v>268.32960000000003</v>
       </c>
       <c r="BE3">
-        <v>159.4251</v>
+        <v>274.53580000000011</v>
       </c>
       <c r="BF3">
         <v>0</v>
@@ -1212,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1238,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -1256,133 +1232,133 @@
         <v>10</v>
       </c>
       <c r="O4">
-        <v>1864.85</v>
+        <v>557.82000000000005</v>
       </c>
       <c r="P4">
-        <v>1894.59</v>
+        <v>1198.0999999999999</v>
       </c>
       <c r="Q4">
-        <v>1928.37</v>
+        <v>1506.01</v>
       </c>
       <c r="R4">
-        <v>1000.19</v>
+        <v>6.61</v>
       </c>
       <c r="S4">
-        <v>1196.32</v>
+        <v>89.37</v>
       </c>
       <c r="T4">
-        <v>1445.6</v>
+        <v>352.93</v>
       </c>
       <c r="U4">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="V4">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="W4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="Y4">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="Z4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AA4">
+        <v>3.51</v>
+      </c>
+      <c r="AB4">
+        <v>3.54</v>
+      </c>
+      <c r="AC4">
         <v>3.55</v>
       </c>
-      <c r="AB4">
-        <v>3.59</v>
-      </c>
-      <c r="AC4">
-        <v>3.61</v>
-      </c>
       <c r="AD4">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AE4">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="AF4">
-        <v>0.17</v>
+        <v>68.28</v>
       </c>
       <c r="AG4">
-        <v>2.971576227390181</v>
+        <v>4.2209302325581399</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI4">
+        <v>4</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4">
+        <v>0.2099073896114067</v>
+      </c>
+      <c r="AL4">
+        <v>3.1360246820415361</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>4.9531459170013392E-2</v>
+      </c>
+      <c r="AO4">
+        <v>0.66828087167070216</v>
+      </c>
+      <c r="AP4">
         <v>1</v>
       </c>
-      <c r="AJ4">
-        <v>7</v>
-      </c>
-      <c r="AK4">
-        <v>1.171218964161327</v>
-      </c>
-      <c r="AL4">
-        <v>2.745300274786953</v>
-      </c>
-      <c r="AM4">
-        <v>0.5676691729323309</v>
-      </c>
-      <c r="AN4">
-        <v>0.6740506329113924</v>
-      </c>
-      <c r="AO4">
-        <v>0.7611940298507462</v>
-      </c>
-      <c r="AP4">
-        <v>2.25</v>
-      </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AV4">
-        <v>0.8709677419354839</v>
+        <v>0.45161290322580638</v>
       </c>
       <c r="AW4">
-        <v>1.419354838709677</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="AX4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY4">
-        <v>6.297552454471588</v>
+        <v>6.8165319482485449</v>
       </c>
       <c r="AZ4">
         <v>2</v>
       </c>
       <c r="BA4">
-        <v>103.675</v>
+        <v>199.39500000000001</v>
       </c>
       <c r="BB4">
-        <v>9.945</v>
+        <v>21.184999999999999</v>
       </c>
       <c r="BC4">
-        <v>120.034525</v>
+        <v>234.244325</v>
       </c>
       <c r="BD4">
-        <v>123.1672</v>
+        <v>240.91759999999999</v>
       </c>
       <c r="BE4">
-        <v>129.3331</v>
+        <v>254.0523</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -1394,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1405,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1420,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -1432,55 +1408,55 @@
         <v>0.05</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>10</v>
       </c>
       <c r="O5">
-        <v>1554.3</v>
+        <v>557.82000000000005</v>
       </c>
       <c r="P5">
-        <v>1572.57</v>
+        <v>1205.6600000000001</v>
       </c>
       <c r="Q5">
-        <v>1615.41</v>
+        <v>1614.35</v>
       </c>
       <c r="R5">
-        <v>22.66</v>
+        <v>182.96</v>
       </c>
       <c r="S5">
-        <v>43.77</v>
+        <v>388.45</v>
       </c>
       <c r="T5">
-        <v>166.91</v>
+        <v>578.04</v>
       </c>
       <c r="U5">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="V5">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="W5">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="X5">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="Y5">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="Z5">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="AA5">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="AB5">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="AC5">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="AD5">
         <v>0.15</v>
@@ -1489,82 +1465,82 @@
         <v>0.17</v>
       </c>
       <c r="AF5">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="AG5">
-        <v>3.288113695090439</v>
+        <v>3.9793281653746768</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <v>0.24947984831705849</v>
+      </c>
+      <c r="AL5">
+        <v>3.4407402945685699</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>4.9531459170013392E-2</v>
+      </c>
+      <c r="AO5">
+        <v>0.5950413223140496</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>2</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>2</v>
+      </c>
+      <c r="AV5">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="AW5">
+        <v>1.5483870967741939</v>
+      </c>
+      <c r="AX5">
         <v>7</v>
       </c>
-      <c r="AK5">
-        <v>1.032165212226439</v>
-      </c>
-      <c r="AL5">
-        <v>3.653464224450945</v>
-      </c>
-      <c r="AM5">
-        <v>0.4468085106382979</v>
-      </c>
-      <c r="AN5">
-        <v>0.6041055718475073</v>
-      </c>
-      <c r="AO5">
-        <v>0.6631299734748011</v>
-      </c>
-      <c r="AP5">
-        <v>2</v>
-      </c>
-      <c r="AQ5">
-        <v>2</v>
-      </c>
-      <c r="AR5">
-        <v>2</v>
-      </c>
-      <c r="AS5">
-        <v>2</v>
-      </c>
-      <c r="AT5">
-        <v>2</v>
-      </c>
-      <c r="AU5">
-        <v>2</v>
-      </c>
-      <c r="AV5">
-        <v>0.7419354838709677</v>
-      </c>
-      <c r="AW5">
-        <v>1.354838709677419</v>
-      </c>
-      <c r="AX5">
-        <v>10</v>
-      </c>
       <c r="AY5">
-        <v>11.54496363798777</v>
+        <v>6.6934769511222836</v>
       </c>
       <c r="AZ5">
         <v>2</v>
       </c>
       <c r="BA5">
-        <v>199.605</v>
+        <v>135.655</v>
       </c>
       <c r="BB5">
-        <v>26.595</v>
+        <v>4.6349999999999909</v>
       </c>
       <c r="BC5">
-        <v>243.353775</v>
+        <v>143.27957499999999</v>
       </c>
       <c r="BD5">
-        <v>251.7312</v>
+        <v>144.7396</v>
       </c>
       <c r="BE5">
-        <v>268.2201</v>
+        <v>147.61330000000001</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -1576,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1587,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1602,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -1614,58 +1590,58 @@
         <v>0.05</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>10</v>
       </c>
       <c r="O6">
-        <v>1569.21</v>
+        <v>1864.85</v>
       </c>
       <c r="P6">
-        <v>1599.72</v>
+        <v>1894.59</v>
       </c>
       <c r="Q6">
-        <v>1758.48</v>
+        <v>1928.37</v>
       </c>
       <c r="R6">
-        <v>110.08</v>
+        <v>1000.19</v>
       </c>
       <c r="S6">
-        <v>231.72</v>
+        <v>1196.32</v>
       </c>
       <c r="T6">
-        <v>493.26</v>
+        <v>1445.6</v>
       </c>
       <c r="U6">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="V6">
-        <v>0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="W6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="X6">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="Y6">
-        <v>0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Z6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AA6">
-        <v>3.52</v>
+        <v>3.55</v>
       </c>
       <c r="AB6">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="AC6">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="AD6">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AE6">
         <v>0.16</v>
@@ -1674,79 +1650,79 @@
         <v>0.17</v>
       </c>
       <c r="AG6">
-        <v>3.373385012919897</v>
+        <v>2.9715762273901811</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>7</v>
       </c>
       <c r="AK6">
-        <v>1.030898890304093</v>
+        <v>1.171218964161328</v>
       </c>
       <c r="AL6">
-        <v>3.302740553709755</v>
+        <v>2.745300274786953</v>
       </c>
       <c r="AM6">
-        <v>0.5150602409638554</v>
+        <v>0.56766917293233088</v>
       </c>
       <c r="AN6">
-        <v>0.6088154269972452</v>
+        <v>0.67405063291139244</v>
       </c>
       <c r="AO6">
-        <v>0.7192429022082019</v>
+        <v>0.76119402985074625</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AS6">
         <v>2</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AV6">
-        <v>0.7741935483870968</v>
+        <v>0.87096774193548387</v>
       </c>
       <c r="AW6">
-        <v>1.354838709677419</v>
+        <v>1.419354838709677</v>
       </c>
       <c r="AX6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY6">
-        <v>13.46979874372482</v>
+        <v>6.1648751537005104</v>
       </c>
       <c r="AZ6">
         <v>2</v>
       </c>
       <c r="BA6">
-        <v>253.965</v>
+        <v>103.675</v>
       </c>
       <c r="BB6">
-        <v>33.24499999999999</v>
+        <v>9.9450000000000003</v>
       </c>
       <c r="BC6">
-        <v>308.653025</v>
+        <v>120.034525</v>
       </c>
       <c r="BD6">
-        <v>319.1251999999999</v>
+        <v>123.16719999999999</v>
       </c>
       <c r="BE6">
-        <v>339.7370999999999</v>
+        <v>129.3331</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -1758,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1784,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1802,133 +1778,133 @@
         <v>10</v>
       </c>
       <c r="O7">
-        <v>1864.85</v>
+        <v>1554.3</v>
       </c>
       <c r="P7">
-        <v>1907.08</v>
+        <v>1572.57</v>
       </c>
       <c r="Q7">
-        <v>1948.61</v>
+        <v>1615.41</v>
       </c>
       <c r="R7">
-        <v>1003.58</v>
+        <v>22.66</v>
       </c>
       <c r="S7">
-        <v>1198.27</v>
+        <v>43.77</v>
       </c>
       <c r="T7">
-        <v>1461.39</v>
+        <v>166.91</v>
       </c>
       <c r="U7">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="V7">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="W7">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="X7">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="Y7">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="Z7">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="AA7">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="AB7">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="AC7">
-        <v>3.61</v>
+        <v>3.68</v>
       </c>
       <c r="AD7">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AE7">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AF7">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="AG7">
-        <v>2.950904392764858</v>
+        <v>3.288113695090439</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK7">
-        <v>1.178025314851769</v>
+        <v>1.032165212226438</v>
       </c>
       <c r="AL7">
-        <v>2.664140179982404</v>
+        <v>3.653464224450945</v>
       </c>
       <c r="AM7">
-        <v>0.6</v>
+        <v>0.44680851063829791</v>
       </c>
       <c r="AN7">
-        <v>0.7192429022082019</v>
+        <v>0.60410557184750735</v>
       </c>
       <c r="AO7">
-        <v>0.7446808510638298</v>
+        <v>0.66312997347480107</v>
       </c>
       <c r="AP7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="AS7">
         <v>2</v>
       </c>
       <c r="AT7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU7">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="AW7">
-        <v>1.419354838709677</v>
+        <v>1.354838709677419</v>
       </c>
       <c r="AX7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY7">
-        <v>13.08418851296107</v>
+        <v>11.312793111801151</v>
       </c>
       <c r="AZ7">
         <v>2</v>
       </c>
       <c r="BA7">
-        <v>203.465</v>
+        <v>199.60499999999999</v>
       </c>
       <c r="BB7">
-        <v>55.445</v>
+        <v>26.594999999999999</v>
       </c>
       <c r="BC7">
-        <v>294.672025</v>
+        <v>243.35377500000001</v>
       </c>
       <c r="BD7">
-        <v>312.1372</v>
+        <v>251.7312</v>
       </c>
       <c r="BE7">
-        <v>346.5131</v>
+        <v>268.2201</v>
       </c>
       <c r="BF7">
         <v>0</v>
@@ -1946,14 +1922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -2036,7 +2012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -2047,7 +2023,7 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -2062,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -2074,7 +2050,7 @@
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>63</v>
@@ -2083,37 +2059,43 @@
         <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2">
+        <v>13046</v>
+      </c>
+      <c r="U2" t="s">
         <v>73</v>
       </c>
-      <c r="R2">
-        <v>13046</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" t="s">
         <v>80</v>
       </c>
-      <c r="T2" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" t="s">
-        <v>88</v>
-      </c>
-      <c r="X2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -2124,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2139,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -2151,7 +2133,7 @@
         <v>0.05</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>63</v>
@@ -2160,360 +2142,40 @@
         <v>65</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3">
+        <v>69</v>
+      </c>
+      <c r="R3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3">
         <v>13046</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA3" t="s">
         <v>81</v>
-      </c>
-      <c r="T3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" t="s">
-        <v>88</v>
-      </c>
-      <c r="X3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0.9</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4">
-        <v>0.05</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4">
-        <v>13046</v>
-      </c>
-      <c r="S4" t="s">
-        <v>82</v>
-      </c>
-      <c r="T4" t="s">
-        <v>83</v>
-      </c>
-      <c r="U4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0.1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5">
-        <v>0.05</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" t="s">
-        <v>73</v>
-      </c>
-      <c r="T5">
-        <v>13046</v>
-      </c>
-      <c r="U5" t="s">
-        <v>85</v>
-      </c>
-      <c r="V5" t="s">
-        <v>83</v>
-      </c>
-      <c r="W5" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6">
-        <v>0.05</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6">
-        <v>13046</v>
-      </c>
-      <c r="U6" t="s">
-        <v>81</v>
-      </c>
-      <c r="V6" t="s">
-        <v>83</v>
-      </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0.9</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7">
-        <v>0.05</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>76</v>
-      </c>
-      <c r="R7" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" t="s">
-        <v>73</v>
-      </c>
-      <c r="T7">
-        <v>13046</v>
-      </c>
-      <c r="U7" t="s">
-        <v>86</v>
-      </c>
-      <c r="V7" t="s">
-        <v>83</v>
-      </c>
-      <c r="W7" t="s">
-        <v>84</v>
-      </c>
-      <c r="X7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
